--- a/ZoningAtlas/raw_data/Excel_workbooks/Windsor_Pomfret_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Windsor_Pomfret_features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED78A231-3A3E-894D-AFF4-7A8DAE5944F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA32AAC-92BF-364D-AC02-5D802448BC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="2380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
+    <workbookView xWindow="3620" yWindow="2380" windowWidth="28040" windowHeight="17440" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="117">
   <si>
     <t>County</t>
   </si>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t>Rural Residential</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>RHO</t>
@@ -447,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -455,105 +452,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill>
@@ -1286,11 +1191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4BA41B-4280-B747-9B6E-C79D73F6A3E5}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C138" sqref="C138"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1309,25 +1214,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>89</v>
@@ -1388,11 +1293,11 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1689,7 +1594,7 @@
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -2685,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -2702,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -2931,10 +2836,10 @@
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="H83" t="s">
         <v>6</v>
@@ -2951,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="H84" t="s">
         <v>6</v>
@@ -3208,12 +3113,12 @@
       <c r="A113" t="s">
         <v>51</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -3458,7 +3363,7 @@
         <v>81</v>
       </c>
       <c r="D129" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -3679,298 +3584,288 @@
     <mergeCell ref="B113:G113"/>
   </mergeCells>
   <conditionalFormatting sqref="B92:B111">
-    <cfRule type="expression" dxfId="72" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="235" stopIfTrue="1">
       <formula>OR(B$15="", B$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115:B121">
-    <cfRule type="expression" dxfId="71" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="234" stopIfTrue="1">
       <formula>OR(B$17="", B$17="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B128 B130:B132">
-    <cfRule type="expression" dxfId="70" priority="233">
+    <cfRule type="expression" dxfId="57" priority="233">
       <formula>OR(B$16="", B$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B136">
-    <cfRule type="expression" dxfId="69" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="232" stopIfTrue="1">
       <formula>OR(B$18="Prohibited", B$18="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:C49">
-    <cfRule type="expression" dxfId="68" priority="238">
+    <cfRule type="expression" dxfId="55" priority="238">
       <formula>OR(B$12="", B$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:C89">
-    <cfRule type="expression" dxfId="67" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="61" stopIfTrue="1">
       <formula>OR(B$13="", B$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:E69">
-    <cfRule type="expression" dxfId="66" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="57" stopIfTrue="1">
       <formula>OR(B$13="", B$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:G32">
-    <cfRule type="expression" dxfId="65" priority="43" stopIfTrue="1">
+  <conditionalFormatting sqref="B21:I32">
+    <cfRule type="expression" dxfId="52" priority="21" stopIfTrue="1">
       <formula>OR(B$11="", B$11="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114:G114 F115:F121">
-    <cfRule type="expression" dxfId="64" priority="38" stopIfTrue="1">
+  <conditionalFormatting sqref="B114:I114 H115:H121">
+    <cfRule type="expression" dxfId="51" priority="13" stopIfTrue="1">
       <formula>OR(B$17="", B$17="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123:G126 F127:F128 B129:G129 F130:F132">
-    <cfRule type="expression" dxfId="63" priority="37">
+  <conditionalFormatting sqref="B123:I126 H127:H132">
+    <cfRule type="expression" dxfId="50" priority="12">
       <formula>OR(B$16="", B$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B134:G134 F135:F137">
-    <cfRule type="expression" dxfId="62" priority="36" stopIfTrue="1">
+  <conditionalFormatting sqref="B134:I134 H135:H136 H137:I137">
+    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
       <formula>OR(B$18="Prohibited", B$18="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C110">
-    <cfRule type="expression" dxfId="61" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="229" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="expression" dxfId="60" priority="230">
+    <cfRule type="expression" dxfId="47" priority="230">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:C120">
-    <cfRule type="expression" dxfId="59" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="222" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="expression" dxfId="58" priority="223">
+    <cfRule type="expression" dxfId="45" priority="223">
       <formula>OR(C$14="", C$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C128">
-    <cfRule type="expression" dxfId="57" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="220" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:C132">
-    <cfRule type="expression" dxfId="56" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="217" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135:C136">
-    <cfRule type="expression" dxfId="55" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="215" stopIfTrue="1">
       <formula>OR(C$13="", C$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:D89">
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="41" priority="56">
       <formula>OR(D$14="", D$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D111">
-    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="55" stopIfTrue="1">
       <formula>OR(D$15="", D$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:D121">
-    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="54" stopIfTrue="1">
       <formula>OR(D$17="", D$17="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127:D128 D130:D132">
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="38" priority="53">
       <formula>OR(D$16="", D$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135:D136 B137:E137">
-    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="52" stopIfTrue="1">
       <formula>OR(B$18="Prohibited", B$18="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:E40 D41 D42:E49">
-    <cfRule type="expression" dxfId="49" priority="58">
+    <cfRule type="expression" dxfId="36" priority="58">
       <formula>OR(D$12="", D$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:E89">
-    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="51" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92:E110">
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="49" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="33" priority="50">
       <formula>OR(E$14="", E$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E115:E120">
+    <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
+      <formula>OR(E$13="", E$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="expression" dxfId="31" priority="27">
+      <formula>OR(E$14="", E$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E127:E128">
-    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="46" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130:E132">
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="45" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E136">
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="44" stopIfTrue="1">
       <formula>OR(E$13="", E$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F89 B90:G90">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>OR(B$14="", B$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:F111">
-    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="39" stopIfTrue="1">
       <formula>OR(F$15="", F$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:G49">
-    <cfRule type="expression" dxfId="38" priority="42">
+  <conditionalFormatting sqref="F115:F121">
+    <cfRule type="expression" dxfId="25" priority="38" stopIfTrue="1">
+      <formula>OR(F$17="", F$17="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F127:F128 B129:G129 F130:F132">
+    <cfRule type="expression" dxfId="24" priority="37">
+      <formula>OR(B$16="", B$16="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F135:F137">
+    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
+      <formula>OR(F$18="Prohibited", F$18="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:G52 F54:F57 F58:G64 G65 F66:G69">
+    <cfRule type="expression" dxfId="22" priority="41" stopIfTrue="1">
+      <formula>OR(F$13="", F$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:I49">
+    <cfRule type="expression" dxfId="21" priority="20">
       <formula>OR(F$12="", F$12="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51:G52 F58:G64 G65 F66:G69 F54:F57">
-    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
-      <formula>OR(F$13="", F$13="Prohibited")</formula>
+  <conditionalFormatting sqref="G53:G57">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71:G89">
-    <cfRule type="expression" dxfId="36" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="35" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G92:G110">
-    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="33" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="17" priority="34">
       <formula>OR(G$14="", G$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G115:G120">
+    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G121">
+    <cfRule type="expression" dxfId="15" priority="25">
+      <formula>OR(G$14="", G$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G128">
+    <cfRule type="expression" dxfId="14" priority="23" stopIfTrue="1">
+      <formula>OR(G$13="", G$13="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G130:G132">
-    <cfRule type="expression" dxfId="30" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="29" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G135:G137">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="28" stopIfTrue="1">
       <formula>OR(G$13="", G$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E120">
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
-      <formula>OR(E$13="", E$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>OR(E$14="", E$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115:G120">
-    <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>OR(G$14="", G$14="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G128">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:G57">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
-      <formula>OR(G$13="", G$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:I32">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>OR(H$11="", H$11="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114:I114 H115:H121">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
-      <formula>OR(H$17="", H$17="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H123:I126 H127:H132">
-    <cfRule type="expression" dxfId="18" priority="12">
-      <formula>OR(H$16="", H$16="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H134:I134 H135:H136 H137:I137">
-    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
-      <formula>OR(H$18="Prohibited", H$18="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:I49">
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>OR(H$12="", H$12="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H71:H90">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>OR(H$14="", H$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92:H111">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
       <formula>OR(H$15="", H$15="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51:I69">
-    <cfRule type="expression" dxfId="13" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
       <formula>OR(H$13="", H$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:I90">
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92:I110">
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>OR(I$14="", I$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I135:I136">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="I115:I120">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I115:I120">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="I121">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>OR(I$14="", I$14="Prohibited")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I127:I128">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>OR(I$14="", I$14="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
@@ -3978,13 +3873,13 @@
       <formula>OR(I$16="", I$16="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I127:I128">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="I130:I132">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I130:I132">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="I135:I136">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>OR(I$13="", I$13="Prohibited")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4098,7 +3993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4156,7 +4051,7 @@
       <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>53</v>
       </c>
     </row>
@@ -4175,7 +4070,7 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4206,17 +4101,17 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="7">
+        <v>112</v>
+      </c>
+      <c r="B13" s="5">
         <v>43957</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="7">
+        <v>113</v>
+      </c>
+      <c r="B14" s="5">
         <v>43957</v>
       </c>
     </row>
